--- a/DBS TCG - Collection.xlsx
+++ b/DBS TCG - Collection.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E25892\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{593E3A38-760F-41AA-A952-CFC6DD7F54E1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="133">
   <si>
     <t>Leader</t>
   </si>
@@ -384,20 +383,666 @@
     <t>Extra Effect Type</t>
   </si>
   <si>
-    <t>Battle Effect Type</t>
-  </si>
-  <si>
     <t>Deck Atual</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose all of your &lt;&lt;Ginyu Force&gt;&gt; Battle Cards. Those cards gain +10000 power and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the duration of the turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dual Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Once per turn, when this card attacks, switch this card to Active Mode after the battle)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, you may place 1 card from your hand in the Drop Area. If you do so, choose up to 2 opponent Rest Mode Battle Cards and KO those cards. Then, this card gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the duration of the turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ❶❶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">❶: &lt;Frieza&gt; (Play this card on top of the specified card)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (This card inflicts 2 damage intead of 1 when attacking)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> When a card evolves into this card, choose all of your opponet's cards with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bolcker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and switch them to Rest Mode.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revenge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When this card is attacked, KO the attacking card after battle) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Counter:Battle Card Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Play this card from your hand and change the target of the attack to this card. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose up to 1 opponent Battle Card and switch it to Rest Mode.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card from your hand, look at up to 3 cards from the top of your deck. Choose up to 1 &lt;&lt;Ginyu Force&gt;&gt; other than &lt;Ginyu&gt; among them and play it. Then shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At the end of your turn, switch this card to Active Mode.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card gains +6000 power during your opponent's turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you Combo with this card, if your Leader Card is yellow and your life is 4 or less, draw 1 card and add +10000 to this card's Combo for the duration of the turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, look at up to 3 cards from the top of your deck. Choose up to 1 &lt;&lt;Frieza's Army&gt;&gt; among them with an energy cost of 2 or less and add it to your hand. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, if your Leader Card is &lt;&lt;Frieza's Army&gt;&gt; choose up to 1 of your opponent's Battle Cards with an energy cost of 2 or less and switch it to Rest Mode.</t>
+    </r>
+  </si>
+  <si>
+    <t>Battle Effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Place 1 of your &lt;&lt;Frieza's Army&gt;&gt; Battle Cards in the Drop Area : Choose up to 1 of your energy and switch it to Active Mode. Then, draw 1 card. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <t>Awakened Effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Place 1 of your &lt;&lt;Frieza's Army&gt;&gt; Battle Cards in the Drop Area : Choose up to 2 of your energy and switch them to Active Mode. Then, draw 1 card. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0066"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF4B056"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +1087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF3737"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,6 +1133,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,6 +1145,10 @@
   <colors>
     <mruColors>
       <color rgb="FFF4B056"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF3737"/>
+      <color rgb="FFFF4F4F"/>
+      <color rgb="FFFF2525"/>
     </mruColors>
   </colors>
   <extLst>
@@ -772,29 +1424,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,177 +1469,185 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
+      <c r="D2" s="1">
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1014,12 +1674,15 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1028,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -1044,12 +1707,15 @@
         <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1057,14 +1723,14 @@
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
+      <c r="D9" s="8">
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>20</v>
@@ -1074,12 +1740,12 @@
         <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1088,28 +1754,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1121,25 +1790,28 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1151,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1164,12 +1836,15 @@
         <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1178,28 +1853,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1208,148 +1886,156 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
+      <c r="D18" s="8">
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -1358,386 +2044,409 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
+      <c r="C24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>55</v>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>55</v>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
+      <c r="C29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
+      <c r="C30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -1759,15 +2468,20 @@
       <c r="G32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -1789,17 +2503,22 @@
       <c r="G33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="I33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -1807,14 +2526,14 @@
       <c r="C34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
+      <c r="D34" s="8">
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>61</v>
@@ -1824,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -1852,16 +2571,22 @@
       <c r="H35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
@@ -1884,127 +2609,152 @@
       <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
+      <c r="D37" s="8">
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="I39" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="I40" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
@@ -2027,13 +2777,14 @@
         <v>61</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
@@ -2041,59 +2792,70 @@
       <c r="C42" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="I42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="8">
-        <v>6</v>
+      <c r="D43" s="1">
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>11</v>
@@ -2102,13 +2864,13 @@
         <v>55</v>
       </c>
       <c r="D44" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>61</v>
@@ -2117,10 +2879,16 @@
       <c r="I44" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -2128,32 +2896,37 @@
       <c r="C45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="8">
-        <v>1</v>
+      <c r="D45" s="1">
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="I45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>11</v>
@@ -2161,26 +2934,34 @@
       <c r="C46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="8">
-        <v>4</v>
+      <c r="D46" s="1">
+        <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>11</v>
@@ -2188,216 +2969,275 @@
       <c r="C47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="8">
-        <v>2</v>
+      <c r="D47" s="1">
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="I47" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2</v>
+      <c r="C50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="I50" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="1">
         <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>90</v>
+      <c r="C53" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D53" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="8">
-        <v>4</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I54" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K1">
+    <sortState ref="A2:K54">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DBS TCG - Collection.xlsx
+++ b/DBS TCG - Collection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20490" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="163">
   <si>
     <t>Leader</t>
   </si>
@@ -497,17 +497,1392 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card from your hand, look at up to 3 cards from the top of your deck. Choose up to 1 &lt;&lt;Ginyu Force&gt;&gt; other than &lt;Ginyu&gt; among them and play it. Then shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At the end of your turn, switch this card to Active Mode.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card gains +6000 power during your opponent's turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you Combo with this card, if your Leader Card is yellow and your life is 4 or less, draw 1 card and add +10000 to this card's Combo for the duration of the turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, look at up to 3 cards from the top of your deck. Choose up to 1 &lt;&lt;Frieza's Army&gt;&gt; among them with an energy cost of 2 or less and add it to your hand. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, if your Leader Card is &lt;&lt;Frieza's Army&gt;&gt; choose up to 1 of your opponent's Battle Cards with an energy cost of 2 or less and switch it to Rest Mode.</t>
+    </r>
+  </si>
+  <si>
+    <t>Battle Effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Place 1 of your &lt;&lt;Frieza's Army&gt;&gt; Battle Cards in the Drop Area : Choose up to 1 of your energy and switch it to Active Mode. Then, draw 1 card. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <t>Awakened Effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Place 1 of your &lt;&lt;Frieza's Army&gt;&gt; Battle Cards in the Drop Area : Choose up to 2 of your energy and switch them to Active Mode. Then, draw 1 card. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card cannot attack Battle Cards. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, both players choose 1 card from their hand and place it in the Drop Area. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card cannot attack Battle Cards. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card. Then, both players choose 1 card from their hand and 1 card from their Battle Area, and place those cards in their Drop Area.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card can attack Battle Cards in Active Mode. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card can attack Battle Cards in Active Mode.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card. If this card attacks a Battle Card, it gains +5000 power for the duration of the turn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At the end of your turn, choose up to 1 of your Battle Cards, and switch it to Active Mode. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 of less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At the end of your turn, choose up to 2 of your Battle Cards and switch them to Active Mode. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Flip over 1 face-down card in your life: If the flipped card is &lt;&lt;Ginyu Force&gt;&gt; but not &lt;Ginyu&gt;, play that card. If not, add it to your hand. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add 1 card from your life to your hand: This card gains [Double] for the duration of the turn. If there are 2 or more of your &lt;&lt;Ginyu Force&gt;&gt; in play, this card gains an additional +5000 power for the duration of the turn. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Triple Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (This card inflicts 3 damage instead of 1 when attacking) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you activate this card's Blocker, switch this card to Active Mode after the battle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revenge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When this card is attacked, KO the attacking card after battle) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Counter:Battle Card Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Play this card from your hand and change the target of the attack to this card. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose up to 1 opponent Battle Card and switch it to Rest Mode.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Battle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Place 1 card from your hand in the Drop Area : Look at up to 2 cards from the top of your deck. Choose up to 2 &lt;&lt;Frieza's Army"&gt;&gt; among them and place them in your Combo Area. Place any other cards in the Drop Area.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (This card inflicts 2 damage instead of 1 when attacking) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose up to 2 opponent Battle Cards. They cannot be switched to Active Mode during your opponent's next Charge Phase.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, look at up to 7 cards from the top of your deck and add 1 green Broly among them to your hand. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card is placed in the Drop Area from the Battle Area, if your Leader Card is &lt;Broly&gt;, you may place 1 card from your hand in the Drop Area. If you do, play this card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose up to 1 &lt;Whis&gt; with an energy cost of 4 or lower from your deck and add it to your hand. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (This card inflicts 2 damage instead of 1 when attacking)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ❷ : Look at up to 7 cards from the top of your deck, choose one &lt;Frost&gt; with Evolve among them and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Evolve</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this card into it. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (This card inflicts 2 damage instead of 1 when attacking) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose up to 1 &lt;Supreme Kai's Attendant&gt; from your deck and play it. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (This card inflicts 2 damage instead of 1 when attacking) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, if you have 5 or more energy, choose up to 1opponent Battle Card and KO that card.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF4B056"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate: Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Once per turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Place 1 card from your life to the Drop Area : Choose 1 of your opponent's Battle Cards and KO it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Critical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (When this card inflicts damage to your opponent's life, they place that many cards in the Drop Area instead of their hand)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ❶❶</t>
+      <t xml:space="preserve"> ❷</t>
     </r>
     <r>
       <rPr>
@@ -580,6 +1955,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Evolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">❷: &lt;Son Goku&gt; (Play this card on top of the specified card) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Double Strike</t>
     </r>
     <r>
@@ -590,58 +2006,188 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, choose all of your opponent's Battle Cards with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Revenge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (When this card is attacked, KO the attacking card after battle) 
+      <t>Blocker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and return them to their hand.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, look at up to 7 cards from the top of your deck. Choose up to 1 blue &lt;Son Goku&gt; among them and add it to your hand. Then, shuffle your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When you play this card, add 1 card to your energy from the top of your deck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks a Leader Card, your opponent chooses 1 card from their hand and places it in the Drop Area.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permanent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This card cannot attack Battle Cards.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, if you have 3 or more energy, choose up to 1 of your opponent's Battle Cards with an energy cost of 2 or less and KO it. 
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Counter:Battle Card Attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Play this card from your hand and change the target of the attack to this card. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Awaken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Auto</t>
     </r>
@@ -651,196 +2197,15 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When you play this card, choose up to 1 opponent Battle Card and switch it to Rest Mode.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blocker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When you play this card from your hand, look at up to 3 cards from the top of your deck. Choose up to 1 &lt;&lt;Ginyu Force&gt;&gt; other than &lt;Ginyu&gt; among them and play it. Then shuffle your deck.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> At the end of your turn, switch this card to Active Mode.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Permanent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This card gains +6000 power during your opponent's turn.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When you Combo with this card, if your Leader Card is yellow and your life is 4 or less, draw 1 card and add +10000 to this card's Combo for the duration of the turn.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When you play this card, look at up to 3 cards from the top of your deck. Choose up to 1 &lt;&lt;Frieza's Army&gt;&gt; among them with an energy cost of 2 or less and add it to your hand. Then, shuffle your deck.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blocker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (When one of your other cards is attacked, you may switch this card to Rest Mode and change the target of the attack to this card) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When you play this card, if your Leader Card is &lt;&lt;Frieza's Army&gt;&gt; choose up to 1 of your opponent's Battle Cards with an energy cost of 2 or less and switch it to Rest Mode.</t>
-    </r>
-  </si>
-  <si>
-    <t>Battle Effect</t>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve"> When this card attacks, draw 1 card. Then choose up to 1 of your opponent's Battle Cards with an energy cost of 3 or less and KO it. </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFF4B056"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Activate: Main</t>
     </r>
@@ -850,116 +2215,8 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Once per turn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Place 1 of your &lt;&lt;Frieza's Army&gt;&gt; Battle Cards in the Drop Area : Choose up to 1 of your energy and switch it to Active Mode. Then, draw 1 card. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Awaken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When your life is at 4 or less: You may draw 2 cards and flip this card over.</t>
-    </r>
-  </si>
-  <si>
-    <t>Awakened Effect</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF4B056"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Activate: Main</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Once per turn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Place 1 of your &lt;&lt;Frieza's Army&gt;&gt; Battle Cards in the Drop Area : Choose up to 2 of your energy and switch them to Active Mode. Then, draw 1 card. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> When this card attacks, draw 1 card.</t>
+      </rPr>
+      <t xml:space="preserve"> ❿❻, Switch this card to Rest Mode: You win this game.</t>
     </r>
   </si>
 </sst>
@@ -967,7 +2224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +2304,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF4B056"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1104,7 +2380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,6 +2412,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,6 +2439,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>681037</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="1633537"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1428,7 +2761,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,10 +2802,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>117</v>
@@ -1506,7 +2839,9 @@
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1539,8 +2874,12 @@
       <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +2909,9 @@
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +2944,9 @@
       <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +2979,9 @@
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +3014,9 @@
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1702,7 +3049,9 @@
       <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +3084,9 @@
       <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1765,7 +3116,9 @@
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +3151,9 @@
       <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +3186,9 @@
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1864,7 +3221,9 @@
       <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1897,7 +3256,9 @@
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1965,7 +3326,9 @@
       <c r="G16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +3358,12 @@
       <c r="G17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2055,7 +3422,9 @@
       <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2158,7 +3527,9 @@
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2223,7 +3594,9 @@
       <c r="G24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2253,7 +3626,9 @@
       <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2286,7 +3661,9 @@
       <c r="G26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2319,7 +3696,9 @@
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I27" s="2" t="s">
         <v>29</v>
       </c>
@@ -2352,8 +3731,12 @@
       <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
       </c>
@@ -2380,7 +3763,9 @@
       <c r="G29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="I29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2410,7 +3795,9 @@
       <c r="G30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2440,8 +3827,12 @@
       <c r="G31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2504,7 +3895,7 @@
         <v>61</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>29</v>
@@ -2538,7 +3929,9 @@
       <c r="G34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I34" s="2" t="s">
         <v>29</v>
       </c>
@@ -2641,7 +4034,9 @@
       <c r="G37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I37" s="2" t="s">
         <v>29</v>
       </c>
@@ -2672,7 +4067,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>29</v>
@@ -2742,7 +4137,7 @@
         <v>61</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>29</v>
@@ -2776,8 +4171,12 @@
       <c r="G41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
       </c>
@@ -2805,10 +4204,10 @@
         <v>20</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -2875,7 +4274,9 @@
       <c r="G44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="I44" s="2" t="s">
         <v>29</v>
       </c>
@@ -2909,7 +4310,7 @@
         <v>61</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>29</v>
@@ -2947,7 +4348,7 @@
         <v>61</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
@@ -2982,7 +4383,7 @@
         <v>61</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>29</v>
@@ -3017,7 +4418,7 @@
         <v>61</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>29</v>
@@ -3051,8 +4452,12 @@
       <c r="G49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
       </c>
@@ -3080,7 +4485,7 @@
         <v>44</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>29</v>
@@ -3152,7 +4557,9 @@
       <c r="G52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I52" s="2" t="s">
         <v>29</v>
       </c>
@@ -3185,7 +4592,9 @@
       <c r="G53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I53" s="2" t="s">
         <v>29</v>
       </c>
@@ -3239,5 +4648,6 @@
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>